--- a/contoh/data.xlsx
+++ b/contoh/data.xlsx
@@ -5,10 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="image" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="video" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t xml:space="preserve">300 Epoch</t>
   </si>
@@ -50,6 +53,87 @@
   </si>
   <si>
     <t xml:space="preserve">170.9 MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pengujian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video-fajar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frame800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resnet-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedestrian(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motorbiker(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zebracross(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video Siang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frame475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motorbiker(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video Malam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frame180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedestrian(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motorbiker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make_video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video-siang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video-malam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t_frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">durasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">720x1280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1080x1920</t>
   </si>
 </sst>
 </file>
@@ -65,6 +149,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -85,6 +170,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,8 +215,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -140,6 +230,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -161,87 +255,87 @@
   </sheetPr>
   <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>0.3933</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>0.299</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>0.173101851851852</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>96.21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.4061</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>0.3653</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>0.153055555555556</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>95.76</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -252,4 +346,390 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:E17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.71"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.984</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.983</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.99374548600008</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.978</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">AVERAGE(0.909,0.969,0.999)</f>
+        <v>0.959</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>1.43585392400018</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">AVERAGE(0.993,0.922)</f>
+        <v>0.9575</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>1.16567417899932</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="16.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>474.475504327001</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>49.8704260520008</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">D3+E3</f>
+        <v>524.345930379001</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">F3/60</f>
+        <v>8.73909883965002</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>86.6</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>441.852473606</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>36.8089450269999</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">D7+E7</f>
+        <v>478.661418633</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">F7/60</f>
+        <v>7.97769031055</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>289.010313921999</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>34.5790644659992</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">D11+E11</f>
+        <v>323.589378387998</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">F11/60</f>
+        <v>5.39315630646664</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>38.7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:F5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1903</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>63.43</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>735</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>701</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>28.04</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/contoh/data.xlsx
+++ b/contoh/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t xml:space="preserve">300 Epoch</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">Resnet-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resnet-101</t>
   </si>
   <si>
     <t xml:space="preserve">Pedestrian(1)</t>
@@ -256,10 +259,10 @@
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -353,16 +356,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -382,115 +387,171 @@
       <c r="E5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="G5" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0.984</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>0.986</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0.983</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <v>0.995</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G8" s="0" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.99374548600008</v>
+        <v>1.93315601300003</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="n">
+        <v>2.59988208599998</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>0.652231480000182</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0.978</v>
+        <v>0.987</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.999</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="0" t="n">
-        <f aca="false">AVERAGE(0.909,0.969,0.999)</f>
-        <v>0.959</v>
+        <f aca="false">AVERAGE(0.826,0.974,0.999)</f>
+        <v>0.933</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">AVERAGE(0.963,0.881,0.999,0.702)</f>
+        <v>0.88625</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0.996</v>
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.997</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>1.43585392400018</v>
+        <v>2.64984481800002</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="n">
+        <v>3.63471113700007</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>1.18049607399985</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">AVERAGE(0.993,0.922)</f>
         <v>0.9575</v>
       </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">AVERAGE(0.917,0.999,0.999)</f>
+        <v>0.971666666666667</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0.999</v>
       </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>1.16567417899932</v>
+        <v>2.79160732399987</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="n">
+        <v>3.79122825499962</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>1.02408141900014</v>
       </c>
     </row>
   </sheetData>
@@ -512,10 +573,10 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="16.71"/>
   </cols>
@@ -530,16 +591,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -567,9 +628,31 @@
         <v>88.8</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>444.726683272</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>38.7980361589998</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">D4+E4</f>
+        <v>483.524719431</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">F4/60</f>
+        <v>8.05874532385</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>87.7</v>
+      </c>
+    </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,9 +680,31 @@
         <v>52.8</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>333.456158552</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>30.1253132429993</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">D8+E8</f>
+        <v>363.581471795</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">F8/60</f>
+        <v>6.05969119658333</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>50.1</v>
+      </c>
+    </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,6 +730,28 @@
       </c>
       <c r="I11" s="0" t="n">
         <v>38.7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>263.452456188</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>28.1791308430002</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">D12+E12</f>
+        <v>291.631587031</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">F12/60</f>
+        <v>4.86052645051667</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>39.1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,20 +783,20 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -686,12 +813,12 @@
         <v>63.43</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>25</v>
@@ -703,12 +830,12 @@
         <v>29.4</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>25</v>
@@ -720,7 +847,7 @@
         <v>28.04</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/contoh/data.xlsx
+++ b/contoh/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -358,7 +358,7 @@
   </sheetPr>
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -572,8 +572,8 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -648,6 +648,11 @@
       </c>
       <c r="I4" s="0" t="n">
         <v>87.7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="4" t="n">
+        <v>419.161789194</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/contoh/data.xlsx
+++ b/contoh/data.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="image" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="video" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="103">
   <si>
     <t xml:space="preserve">300 Epoch</t>
   </si>
@@ -70,6 +71,9 @@
     <t xml:space="preserve">Resnet-101</t>
   </si>
   <si>
+    <t xml:space="preserve">Mobilenet-V1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pedestrian(1)</t>
   </si>
   <si>
@@ -115,9 +119,15 @@
     <t xml:space="preserve">output size</t>
   </si>
   <si>
+    <t xml:space="preserve">mobilenet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Video-siang</t>
   </si>
   <si>
+    <t xml:space="preserve">Mobilenet-v1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Video-malam</t>
   </si>
   <si>
@@ -137,6 +147,192 @@
   </si>
   <si>
     <t xml:space="preserve">1080x1920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convolutional matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ground truth class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2. 3. 3. 1. 2. 1. 1. 2. 3. 1. 2. 3. 3. 1. 1. 1. 0.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2. 3. 3. 1. 2. 1. 1. 1. 2. 3. 1. 2. 3. 3. 1. 1.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2. 2. 2. 3. 3. 3. 1. 3. 1. 1. 1. 1. 1. 2. 3. 1. 0. 0. 0.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prediction class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2. 3. 3. 1. 2. 1. 1. 2. 3. 1. 0. 0. 0. 0. 0. 0. 3.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2. 3. 3. 1. 2. 1. 1. 1. 2. 3. 1. 0. 0. 0. 0. 0.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2. 2. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 2. 2. 2.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True Positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0, 4, 3, 3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0, 5, 3, 3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0, 0, 2, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False Positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1, 3, 1, 2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0, 2, 1, 2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3, 7, 2, 5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False Negatif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[6, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[5, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[14, 0, 3, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fajar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2. 3. 1.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2. 3. 1. 0.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0. 0. 0. 2.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1, 1, 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0, 0, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2. 3. 3. 1. 2. 3. 3. 0.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2. 3. 3. 1. 2. 3. 3.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2. 2. 3. 3. 3. 1. 3. 0.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2. 3. 3. 1. 0. 0. 0. 3.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2. 3. 3. 1. 0. 0. 0.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2. 0. 0. 0. 0. 0. 0. 2.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0, 1, 1, 2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1, 0, 1, 2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0, 0, 1, 2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1, 1, 1, 4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[6, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2. 1. 1. 1. 1. 1.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2. 1. 1. 1. 1. 1. 0.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2. 1. 1. 0. 0. 0.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2. 1. 1. 1. 0. 0.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2. 0. 0. 0. 0. 0. 2.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0, 2, 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0, 3, 1] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0, 0, 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0, 3, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0, 2, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1, 5, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3, 0, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2, 0, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[5, 0, 1]</t>
   </si>
 </sst>
 </file>
@@ -262,7 +458,7 @@
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -359,10 +555,10 @@
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.71"/>
@@ -390,10 +586,13 @@
       <c r="G5" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="H5" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0.984</v>
@@ -404,7 +603,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0.983</v>
@@ -415,7 +614,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -426,7 +625,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>1.93315601300003</v>
@@ -441,13 +640,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0.987</v>
@@ -461,7 +660,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">AVERAGE(0.826,0.974,0.999)</f>
@@ -474,7 +673,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
@@ -485,7 +684,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>2.64984481800002</v>
@@ -500,13 +699,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">AVERAGE(0.993,0.922)</f>
@@ -519,7 +718,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
@@ -530,7 +729,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0.999</v>
@@ -541,7 +740,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>2.79160732399987</v>
@@ -572,11 +771,11 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="16.71"/>
   </cols>
@@ -591,16 +790,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -615,11 +814,11 @@
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">D3+E3</f>
-        <v>524.345930379001</v>
+        <v>524.345930379002</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">F3/60</f>
-        <v>8.73909883965002</v>
+        <v>8.73909883965003</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>86.6</v>
@@ -651,13 +850,30 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>31</v>
+      </c>
       <c r="D5" s="4" t="n">
-        <v>419.161789194</v>
+        <v>410.914148355</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>40.8909082209993</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">D5+E5</f>
+        <v>451.805056576</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">F5/60</f>
+        <v>7.53008427626666</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>89.7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,19 +913,41 @@
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">D8+E8</f>
-        <v>363.581471795</v>
+        <v>363.581471794999</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">F8/60</f>
-        <v>6.05969119658333</v>
+        <v>6.05969119658332</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>50.1</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>243.107658138</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>30.299445228</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">D9+E9</f>
+        <v>273.407103366</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">F9/60</f>
+        <v>4.5567850561</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>42</v>
+      </c>
+    </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,6 +995,28 @@
       </c>
       <c r="I12" s="0" t="n">
         <v>39.1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>219.233811182</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>28.2374684380002</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">D13+E13</f>
+        <v>247.47127962</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">F13/60</f>
+        <v>4.124521327</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>36.1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -788,20 +1048,20 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -818,12 +1078,12 @@
         <v>63.43</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>25</v>
@@ -835,12 +1095,12 @@
         <v>29.4</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>25</v>
@@ -852,8 +1112,448 @@
         <v>28.04</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>37</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">AVERAGE(C18,C27,C36)</f>
+        <v>0.56349206633038</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">AVERAGE(D18,D27,D36)</f>
+        <v>0.69047619899114</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">AVERAGE(E18,E27,E36)</f>
+        <v>0.0793650820851326</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>0.19047619899114</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>0.571428596973419</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>0.0714285746216774</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>0.16666667163372</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/contoh/data.xlsx
+++ b/contoh/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -554,7 +554,7 @@
   </sheetPr>
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1045,7 +1045,7 @@
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1133,8 +1133,8 @@
   </sheetPr>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/contoh/data.xlsx
+++ b/contoh/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="video" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="116">
   <si>
     <t xml:space="preserve">300 Epoch</t>
   </si>
@@ -248,7 +249,7 @@
     <t xml:space="preserve">siang</t>
   </si>
   <si>
-    <t xml:space="preserve">[2. 3. 3. 1. 2. 3. 3. 0.]</t>
+    <t xml:space="preserve">[0. 2. 3. 3. 1. 2. 3. 3. 0.]</t>
   </si>
   <si>
     <t xml:space="preserve">[2. 3. 3. 1. 2. 3. 3.]</t>
@@ -257,7 +258,7 @@
     <t xml:space="preserve">[2. 2. 3. 3. 3. 1. 3. 0.]</t>
   </si>
   <si>
-    <t xml:space="preserve">[2. 3. 3. 1. 0. 0. 0. 3.]</t>
+    <t xml:space="preserve">[0. 2. 3. 3. 1. 0. 0. 0. 3.]</t>
   </si>
   <si>
     <t xml:space="preserve">[2. 3. 3. 1. 0. 0. 0.]</t>
@@ -266,6 +267,9 @@
     <t xml:space="preserve">[2. 0. 0. 0. 0. 0. 0. 2.]</t>
   </si>
   <si>
+    <t xml:space="preserve">[1, 1, 1, 2]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0, 1, 1, 2]</t>
   </si>
   <si>
@@ -293,13 +297,16 @@
     <t xml:space="preserve">malam</t>
   </si>
   <si>
+    <t xml:space="preserve">[0. 2. 1. 1. 1. 1. 1.]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[2. 1. 1. 1. 1. 1.]</t>
   </si>
   <si>
     <t xml:space="preserve">[2. 1. 1. 1. 1. 1. 0.]</t>
   </si>
   <si>
-    <t xml:space="preserve">[2. 1. 1. 0. 0. 0.]</t>
+    <t xml:space="preserve">[0. 2. 1. 1. 0. 0. 0.]</t>
   </si>
   <si>
     <t xml:space="preserve">[2. 1. 1. 1. 0. 0.]</t>
@@ -308,7 +315,7 @@
     <t xml:space="preserve">[2. 0. 0. 0. 0. 0. 2.]</t>
   </si>
   <si>
-    <t xml:space="preserve">[0, 2, 1]</t>
+    <t xml:space="preserve">[1, 2, 1]</t>
   </si>
   <si>
     <t xml:space="preserve">[0, 3, 1] </t>
@@ -333,6 +340,39 @@
   </si>
   <si>
     <t xml:space="preserve">[5, 0, 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fajar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1_Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedestrian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zebracross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
 </sst>
 </file>
@@ -458,7 +498,7 @@
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -554,11 +594,11 @@
   </sheetPr>
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.71"/>
@@ -775,7 +815,7 @@
       <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="16.71"/>
   </cols>
@@ -861,11 +901,11 @@
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">D5+E5</f>
-        <v>451.805056576</v>
+        <v>451.805056575999</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">F5/60</f>
-        <v>7.53008427626666</v>
+        <v>7.53008427626665</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>89.7</v>
@@ -1048,7 +1088,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
@@ -1134,12 +1174,12 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.95"/>
@@ -1249,7 +1289,7 @@
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">AVERAGE(E18,E27,E36)</f>
-        <v>0.0793650820851326</v>
+        <v>0.0793650820851325</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1404,10 +1444,10 @@
         <v>80</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1415,13 +1455,13 @@
         <v>55</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1429,13 +1469,13 @@
         <v>59</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,7 +1494,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1473,13 +1513,13 @@
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1487,13 +1527,13 @@
         <v>47</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,13 +1541,13 @@
         <v>51</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,13 +1555,13 @@
         <v>55</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,13 +1569,13 @@
         <v>59</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1554,6 +1594,891 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R38"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O31" activeCellId="0" sqref="O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>66.66</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22" s="4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>74.9</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>66.66</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>86.67</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="O30" s="4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R33" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>72.72</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>71.43</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>85.71</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>74.99</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>60.54</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38" s="4" t="n">
+        <v>76.61</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="O38" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/contoh/data.xlsx
+++ b/contoh/data.xlsx
@@ -381,7 +381,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="hh:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="HH:MM:SS\ AM/PM"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -477,28 +477,31 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:G13"/>
+  <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.61"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -561,20 +564,6 @@
       <c r="G6" s="1" t="n">
         <v>95.76</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -588,7 +577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -598,7 +587,7 @@
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.71"/>
@@ -805,17 +794,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="16.71"/>
   </cols>
@@ -1058,13 +1047,6 @@
       <c r="I13" s="0" t="n">
         <v>36.1</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="4"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1078,7 +1060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1088,7 +1070,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
@@ -1167,17 +1149,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.83"/>
@@ -1591,9 +1573,6 @@
       <c r="E36" s="4" t="n">
         <v>0.16666667163372</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1607,17 +1586,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O31" activeCellId="0" sqref="O31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.54"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/contoh/data.xlsx
+++ b/contoh/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="116">
   <si>
     <t xml:space="preserve">300 Epoch</t>
   </si>
@@ -381,7 +381,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="HH:MM:SS\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="hh:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -477,31 +477,28 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="1" sqref="P14 E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.61"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -577,17 +574,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="P14 H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.71"/>
@@ -794,17 +791,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="topLeft" activeCell="I13" activeCellId="1" sqref="P14 I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="16.71"/>
   </cols>
@@ -1060,17 +1057,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="P14 E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
@@ -1149,17 +1146,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+      <selection pane="topLeft" activeCell="C35" activeCellId="1" sqref="P14 C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.83"/>
@@ -1586,20 +1583,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P14" activeCellId="0" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.54"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1854,6 +1848,14 @@
       <c r="O14" s="0" t="n">
         <v>37.5</v>
       </c>
+      <c r="P14" s="0" t="n">
+        <f aca="false">AVERAGE(P10:P13)</f>
+        <v>37.5</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <f aca="false">AVERAGE(Q10:Q13)</f>
+        <v>41.665</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -2054,20 +2056,38 @@
       <c r="B22" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="4"/>
+      <c r="D22" s="0" t="n">
+        <f aca="false">AVERAGE(D18:D21)</f>
         <v>62.5</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">AVERAGE(E18:E21)</f>
+        <v>72.915</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="4" t="n">
+      <c r="I22" s="4"/>
+      <c r="J22" s="0" t="n">
+        <f aca="false">AVERAGE(J18:J21)</f>
         <v>75</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">AVERAGE(K18:K21)</f>
+        <v>81.25</v>
       </c>
       <c r="N22" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="O22" s="4" t="n">
+      <c r="O22" s="4"/>
+      <c r="P22" s="0" t="n">
+        <f aca="false">AVERAGE(P18:P21)</f>
         <v>25</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <f aca="false">AVERAGE(Q18:Q21)</f>
+        <v>32.14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2333,13 +2353,13 @@
         <v>109</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>14.28</v>
+        <v>33</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>22.22</v>
+        <v>46.15</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>109</v>
@@ -2348,13 +2368,22 @@
         <v>100</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>16.66</v>
+        <v>37.5</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>28.57</v>
+        <v>54.54</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>109</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>26.08</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2368,13 +2397,13 @@
         <v>100</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>72.72</v>
+        <v>72.73</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>110</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>71.43</v>
+        <v>71.42</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>100</v>
@@ -2384,6 +2413,15 @@
       </c>
       <c r="O35" s="0" t="s">
         <v>110</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="R35" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2397,7 +2435,7 @@
         <v>100</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>85</v>
+        <v>85.71</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>111</v>
@@ -2413,6 +2451,15 @@
       </c>
       <c r="O36" s="0" t="s">
         <v>111</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>44.45</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,13 +2490,22 @@
       <c r="O37" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="P37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="R37" s="0" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
         <v>72</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>60.54</v>
+        <v>66.78</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>72</v>
@@ -2460,7 +2516,9 @@
       <c r="N38" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="O38" s="4"/>
+      <c r="O38" s="4" t="n">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/contoh/data.xlsx
+++ b/contoh/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="117">
   <si>
     <t xml:space="preserve">300 Epoch</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t xml:space="preserve">output size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kesimpulan</t>
   </si>
   <si>
     <t xml:space="preserve">mobilenet</t>
@@ -379,9 +382,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -454,7 +458,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -473,6 +477,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -495,7 +503,7 @@
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="1" sqref="P14 E5"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -581,7 +589,7 @@
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="P14 H9"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -795,15 +803,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="1" sqref="P14 I13"/>
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -852,6 +862,9 @@
       <c r="I3" s="0" t="n">
         <v>88.8</v>
       </c>
+      <c r="L3" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
@@ -877,7 +890,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>410.914148355</v>
@@ -899,7 +912,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,7 +964,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>243.107658138</v>
@@ -973,7 +986,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1025,7 +1038,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>219.233811182</v>
@@ -1044,6 +1057,209 @@
       <c r="I13" s="0" t="n">
         <v>36.1</v>
       </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <f aca="false">D3/86400</f>
+        <v>0.00549161463341436</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <f aca="false">E3/86400</f>
+        <v>0.000577204005231491</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <f aca="false">F3/86400</f>
+        <v>0.00606881863864586</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <f aca="false">D4/86400</f>
+        <v>0.00514729957490741</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <f aca="false">E4/86400</f>
+        <v>0.000449051344432868</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <f aca="false">F4/86400</f>
+        <v>0.00559635091934028</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <f aca="false">D5/86400</f>
+        <v>0.00475595079114583</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <f aca="false">E5/86400</f>
+        <v>0.00047327440070601</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <f aca="false">F5/86400</f>
+        <v>0.00522922519185184</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <f aca="false">D6/86400</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <f aca="false">E6/86400</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <f aca="false">F6/86400</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <f aca="false">D7/86400</f>
+        <v>0.0051140332593287</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <f aca="false">E7/86400</f>
+        <v>0.000426029456331017</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <f aca="false">F7/86400</f>
+        <v>0.00554006271565972</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <f aca="false">D8/86400</f>
+        <v>0.00385944627953704</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <f aca="false">E8/86400</f>
+        <v>0.000348672606979159</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <f aca="false">F8/86400</f>
+        <v>0.00420811888651619</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <f aca="false">D9/86400</f>
+        <v>0.00281374604326389</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <f aca="false">E9/86400</f>
+        <v>0.000350688023472222</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <f aca="false">F9/86400</f>
+        <v>0.00316443406673611</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <f aca="false">D10/86400</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <f aca="false">E10/86400</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <f aca="false">F10/86400</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <f aca="false">D11/86400</f>
+        <v>0.00334502678150462</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <f aca="false">E11/86400</f>
+        <v>0.000400220653541657</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <f aca="false">F11/86400</f>
+        <v>0.00374524743504627</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <f aca="false">D12/86400</f>
+        <v>0.00304921824291667</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <f aca="false">E12/86400</f>
+        <v>0.00032614734771991</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <f aca="false">F12/86400</f>
+        <v>0.00337536559063657</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <f aca="false">D13/86400</f>
+        <v>0.00253742837016204</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <f aca="false">E13/86400</f>
+        <v>0.000326822551365743</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <f aca="false">F13/86400</f>
+        <v>0.00286425092152778</v>
+      </c>
+      <c r="G29" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1064,23 +1280,23 @@
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="P14 E4"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1097,12 +1313,12 @@
         <v>63.43</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>25</v>
@@ -1114,12 +1330,12 @@
         <v>29.4</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>25</v>
@@ -1131,7 +1347,7 @@
         <v>28.04</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1369,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="1" sqref="P14 C35"/>
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1167,12 +1383,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>13</v>
@@ -1181,77 +1397,77 @@
         <v>14</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,7 +1489,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,82 +1500,82 @@
         <v>14</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -1373,7 +1589,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,82 +1600,82 @@
         <v>14</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>0.19047619899114</v>
@@ -1473,7 +1689,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,82 +1700,82 @@
         <v>14</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0.5</v>
@@ -1587,17 +1803,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P14" activeCellId="0" sqref="P14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T24" activeCellId="0" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,28 +1821,28 @@
         <v>13</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,7 +1852,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,42 +1860,42 @@
         <v>13</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K9" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="Q9" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="N9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="R9" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>100</v>
@@ -1691,7 +1907,7 @@
         <v>100</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>100</v>
@@ -1703,7 +1919,7 @@
         <v>100</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>50</v>
@@ -1717,7 +1933,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>100</v>
@@ -1729,7 +1945,7 @@
         <v>100</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>100</v>
@@ -1741,21 +1957,21 @@
         <v>100</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>100</v>
@@ -1767,7 +1983,7 @@
         <v>100</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>100</v>
@@ -1779,7 +1995,7 @@
         <v>100</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P12" s="0" t="n">
         <v>100</v>
@@ -1823,27 +2039,27 @@
         <v>0</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>100</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>100</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>37.5</v>
@@ -1859,7 +2075,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,42 +2083,42 @@
         <v>13</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="L17" s="0" t="s">
+      <c r="Q17" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="N17" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q17" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="R17" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>50</v>
@@ -1914,7 +2130,7 @@
         <v>33.33</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>100</v>
@@ -1926,7 +2142,7 @@
         <v>40</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>50</v>
@@ -1940,7 +2156,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>100</v>
@@ -1952,7 +2168,7 @@
         <v>100</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>100</v>
@@ -1964,21 +2180,21 @@
         <v>100</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>50</v>
@@ -1990,7 +2206,7 @@
         <v>66.66</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>50</v>
@@ -2002,7 +2218,7 @@
         <v>66.66</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>50</v>
@@ -2046,15 +2262,15 @@
         <v>0</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="0" t="n">
@@ -2066,7 +2282,7 @@
         <v>72.915</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="0" t="n">
@@ -2078,7 +2294,7 @@
         <v>81.25</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="0" t="n">
@@ -2092,7 +2308,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,42 +2316,42 @@
         <v>13</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K25" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="0" t="s">
+      <c r="Q25" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="N25" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P25" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q25" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="R25" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>100</v>
@@ -2147,7 +2363,7 @@
         <v>40</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>100</v>
@@ -2159,7 +2375,7 @@
         <v>50</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P26" s="0" t="n">
         <v>50</v>
@@ -2173,7 +2389,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>40</v>
@@ -2185,7 +2401,7 @@
         <v>57.14</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>60</v>
@@ -2197,21 +2413,21 @@
         <v>74.9</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>100</v>
@@ -2223,7 +2439,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>100</v>
@@ -2235,7 +2451,7 @@
         <v>100</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P28" s="0" t="n">
         <v>100</v>
@@ -2252,62 +2468,82 @@
         <v>26</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>26</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O29" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="4" t="n">
+        <v>73</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="0" t="n">
+        <f aca="false">AVERAGE(D26:D29)</f>
         <v>80</v>
       </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">AVERAGE(E26:E29)</f>
+        <v>75</v>
+      </c>
       <c r="H30" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I30" s="4" t="n">
         <v>86.67</v>
       </c>
+      <c r="J30" s="0" t="n">
+        <f aca="false">AVERAGE(J26:J29)</f>
+        <v>86.6666666666667</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">AVERAGE(K26:K29)</f>
+        <v>77.7766666666667</v>
+      </c>
       <c r="N30" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="O30" s="4" t="n">
+        <v>73</v>
+      </c>
+      <c r="O30" s="4"/>
+      <c r="P30" s="0" t="n">
+        <f aca="false">AVERAGE(P26:P29)</f>
         <v>50</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <f aca="false">AVERAGE(Q26:Q29)</f>
+        <v>33.33</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2315,42 +2551,42 @@
         <v>13</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>14</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K33" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="L33" s="0" t="s">
+      <c r="Q33" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="N33" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P33" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q33" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="R33" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>75</v>
@@ -2362,7 +2598,7 @@
         <v>46.15</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>100</v>
@@ -2374,7 +2610,7 @@
         <v>54.54</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>50</v>
@@ -2388,7 +2624,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>57.14</v>
@@ -2400,7 +2636,7 @@
         <v>72.73</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>71.42</v>
@@ -2412,21 +2648,21 @@
         <v>83.33</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>75</v>
@@ -2438,7 +2674,7 @@
         <v>85.71</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>75</v>
@@ -2450,7 +2686,7 @@
         <v>85.71</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P36" s="0" t="n">
         <v>50</v>
@@ -2494,30 +2730,89 @@
         <v>0</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>66.78</v>
       </c>
+      <c r="D38" s="0" t="n">
+        <f aca="false">AVERAGE(D34:D37)</f>
+        <v>66.785</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <f aca="false">AVERAGE(E34:E37)</f>
+        <v>77</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <f aca="false">(2*D38*E38)/(D38+E38)</f>
+        <v>71.5296449560107</v>
+      </c>
       <c r="H38" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I38" s="4" t="n">
         <v>76.61</v>
       </c>
+      <c r="J38" s="0" t="n">
+        <f aca="false">AVERAGE(J34:J37)</f>
+        <v>76.605</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <f aca="false">AVERAGE(K34:K37)</f>
+        <v>84.375</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <f aca="false">(2*J38*K38)/(J38+K38)</f>
+        <v>80.3024832277302</v>
+      </c>
       <c r="N38" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O38" s="4" t="n">
         <v>25</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <f aca="false">AVERAGE(P34:P37)</f>
+        <v>25</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <f aca="false">AVERAGE(Q34:Q37)</f>
+        <v>28.82</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <f aca="false">(2*P38*Q38)/(P38+Q38)</f>
+        <v>26.7744332961724</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <f aca="false">(J38-D38)/J38*100</f>
+        <v>12.819006592259</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <f aca="false">(K38-E38)/K38*100</f>
+        <v>8.74074074074074</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <f aca="false">(L38-F38)/L38*100</f>
+        <v>10.9247409533283</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="0" t="n">
+        <f aca="false">(J38-P38)/J38*100</f>
+        <v>67.365054500359</v>
       </c>
     </row>
   </sheetData>
